--- a/data/melon_song_data/song_album_df.xlsx
+++ b/data/melon_song_data/song_album_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9199"/>
+  <dimension ref="A1:C9201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45330,10 +45330,10 @@
         <v>4164</v>
       </c>
       <c r="B4082" t="n">
-        <v>2057050</v>
+        <v>32143736</v>
       </c>
       <c r="C4082" t="n">
-        <v>497951</v>
+        <v>10346722</v>
       </c>
     </row>
     <row r="4083">
@@ -45341,10 +45341,10 @@
         <v>4165</v>
       </c>
       <c r="B4083" t="n">
-        <v>2056948</v>
+        <v>2722907</v>
       </c>
       <c r="C4083" t="n">
-        <v>497869</v>
+        <v>926955</v>
       </c>
     </row>
     <row r="4084">
@@ -45352,10 +45352,10 @@
         <v>4166</v>
       </c>
       <c r="B4084" t="n">
-        <v>2049249</v>
+        <v>36199948</v>
       </c>
       <c r="C4084" t="n">
-        <v>490951</v>
+        <v>11186804</v>
       </c>
     </row>
     <row r="4085">
@@ -45363,10 +45363,10 @@
         <v>4167</v>
       </c>
       <c r="B4085" t="n">
-        <v>2029548</v>
+        <v>32584915</v>
       </c>
       <c r="C4085" t="n">
-        <v>474351</v>
+        <v>10428038</v>
       </c>
     </row>
     <row r="4086">
@@ -45374,10 +45374,10 @@
         <v>4168</v>
       </c>
       <c r="B4086" t="n">
-        <v>2049451</v>
+        <v>33284453</v>
       </c>
       <c r="C4086" t="n">
-        <v>491152</v>
+        <v>10563906</v>
       </c>
     </row>
     <row r="4087">
@@ -45385,10 +45385,10 @@
         <v>4169</v>
       </c>
       <c r="B4087" t="n">
-        <v>2045406</v>
+        <v>31345333</v>
       </c>
       <c r="C4087" t="n">
-        <v>488067</v>
+        <v>10210361</v>
       </c>
     </row>
     <row r="4088">
@@ -45396,10 +45396,10 @@
         <v>4170</v>
       </c>
       <c r="B4088" t="n">
-        <v>2025048</v>
+        <v>35337881</v>
       </c>
       <c r="C4088" t="n">
-        <v>470251</v>
+        <v>10991127</v>
       </c>
     </row>
     <row r="4089">
@@ -45407,10 +45407,10 @@
         <v>4171</v>
       </c>
       <c r="B4089" t="n">
-        <v>2049081</v>
+        <v>30857319</v>
       </c>
       <c r="C4089" t="n">
-        <v>490755</v>
+        <v>10132496</v>
       </c>
     </row>
     <row r="4090">
@@ -45418,10 +45418,10 @@
         <v>4172</v>
       </c>
       <c r="B4090" t="n">
-        <v>2050156</v>
+        <v>8213794</v>
       </c>
       <c r="C4090" t="n">
-        <v>491852</v>
+        <v>2689245</v>
       </c>
     </row>
     <row r="4091">
@@ -45429,10 +45429,10 @@
         <v>4173</v>
       </c>
       <c r="B4091" t="n">
-        <v>1958817</v>
+        <v>31115658</v>
       </c>
       <c r="C4091" t="n">
-        <v>412157</v>
+        <v>10173752</v>
       </c>
     </row>
     <row r="4092">
@@ -45440,10 +45440,10 @@
         <v>4174</v>
       </c>
       <c r="B4092" t="n">
-        <v>2025148</v>
+        <v>1110890</v>
       </c>
       <c r="C4092" t="n">
-        <v>470351</v>
+        <v>314015</v>
       </c>
     </row>
     <row r="4093">
@@ -45451,10 +45451,10 @@
         <v>4175</v>
       </c>
       <c r="B4093" t="n">
-        <v>2017353</v>
+        <v>30596104</v>
       </c>
       <c r="C4093" t="n">
-        <v>463151</v>
+        <v>10090441</v>
       </c>
     </row>
     <row r="4094">
@@ -45462,10 +45462,10 @@
         <v>4176</v>
       </c>
       <c r="B4094" t="n">
-        <v>2032675</v>
+        <v>4033434</v>
       </c>
       <c r="C4094" t="n">
-        <v>477355</v>
+        <v>2175192</v>
       </c>
     </row>
     <row r="4095">
@@ -45473,10 +45473,10 @@
         <v>4177</v>
       </c>
       <c r="B4095" t="n">
-        <v>2031761</v>
+        <v>31516672</v>
       </c>
       <c r="C4095" t="n">
-        <v>476552</v>
+        <v>10236407</v>
       </c>
     </row>
     <row r="4096">
@@ -45484,10 +45484,10 @@
         <v>4178</v>
       </c>
       <c r="B4096" t="n">
-        <v>2041545</v>
+        <v>30433662</v>
       </c>
       <c r="C4096" t="n">
-        <v>484758</v>
+        <v>10065196</v>
       </c>
     </row>
     <row r="4097">
@@ -45495,10 +45495,10 @@
         <v>4179</v>
       </c>
       <c r="B4097" t="n">
-        <v>2045571</v>
+        <v>4350094</v>
       </c>
       <c r="C4097" t="n">
-        <v>488253</v>
+        <v>2218691</v>
       </c>
     </row>
     <row r="4098">
@@ -45506,10 +45506,10 @@
         <v>4180</v>
       </c>
       <c r="B4098" t="n">
-        <v>2017354</v>
+        <v>3080890</v>
       </c>
       <c r="C4098" t="n">
-        <v>463151</v>
+        <v>1118254</v>
       </c>
     </row>
     <row r="4099">
@@ -45517,10 +45517,10 @@
         <v>4181</v>
       </c>
       <c r="B4099" t="n">
-        <v>2035786</v>
+        <v>1753139</v>
       </c>
       <c r="C4099" t="n">
-        <v>480056</v>
+        <v>359813</v>
       </c>
     </row>
     <row r="4100">
@@ -45528,10 +45528,10 @@
         <v>4182</v>
       </c>
       <c r="B4100" t="n">
-        <v>2047403</v>
+        <v>1883446</v>
       </c>
       <c r="C4100" t="n">
-        <v>489955</v>
+        <v>382579</v>
       </c>
     </row>
     <row r="4101">
@@ -45539,10 +45539,10 @@
         <v>4183</v>
       </c>
       <c r="B4101" t="n">
-        <v>2052687</v>
+        <v>4262739</v>
       </c>
       <c r="C4101" t="n">
-        <v>494354</v>
+        <v>2204429</v>
       </c>
     </row>
     <row r="4102">
@@ -45550,10 +45550,10 @@
         <v>4184</v>
       </c>
       <c r="B4102" t="n">
-        <v>2093360</v>
+        <v>57634</v>
       </c>
       <c r="C4102" t="n">
-        <v>508460</v>
+        <v>4888</v>
       </c>
     </row>
     <row r="4103">
@@ -45561,10 +45561,10 @@
         <v>4185</v>
       </c>
       <c r="B4103" t="n">
-        <v>2063248</v>
+        <v>31800318</v>
       </c>
       <c r="C4103" t="n">
-        <v>501551</v>
+        <v>10285682</v>
       </c>
     </row>
     <row r="4104">
@@ -45572,10 +45572,10 @@
         <v>4186</v>
       </c>
       <c r="B4104" t="n">
-        <v>2093361</v>
+        <v>30306550</v>
       </c>
       <c r="C4104" t="n">
-        <v>508460</v>
+        <v>10046529</v>
       </c>
     </row>
     <row r="4105">
@@ -45583,10 +45583,10 @@
         <v>4187</v>
       </c>
       <c r="B4105" t="n">
-        <v>2100540</v>
+        <v>3685962</v>
       </c>
       <c r="C4105" t="n">
-        <v>514152</v>
+        <v>2069806</v>
       </c>
     </row>
     <row r="4106">
@@ -45594,10 +45594,10 @@
         <v>4188</v>
       </c>
       <c r="B4106" t="n">
-        <v>2101171</v>
+        <v>2093044</v>
       </c>
       <c r="C4106" t="n">
-        <v>514854</v>
+        <v>508382</v>
       </c>
     </row>
     <row r="4107">
@@ -45605,10 +45605,10 @@
         <v>4189</v>
       </c>
       <c r="B4107" t="n">
-        <v>2101157</v>
+        <v>469777</v>
       </c>
       <c r="C4107" t="n">
-        <v>514852</v>
+        <v>31903</v>
       </c>
     </row>
     <row r="4108">
@@ -45616,10 +45616,10 @@
         <v>4190</v>
       </c>
       <c r="B4108" t="n">
-        <v>2097619</v>
+        <v>869915</v>
       </c>
       <c r="C4108" t="n">
-        <v>511859</v>
+        <v>67232</v>
       </c>
     </row>
     <row r="4109">
@@ -45627,10 +45627,10 @@
         <v>4191</v>
       </c>
       <c r="B4109" t="n">
-        <v>2102150</v>
+        <v>2663168</v>
       </c>
       <c r="C4109" t="n">
-        <v>515751</v>
+        <v>873053</v>
       </c>
     </row>
     <row r="4110">
@@ -45638,10 +45638,10 @@
         <v>4192</v>
       </c>
       <c r="B4110" t="n">
-        <v>2097848</v>
+        <v>30686020</v>
       </c>
       <c r="C4110" t="n">
-        <v>512051</v>
+        <v>10104556</v>
       </c>
     </row>
     <row r="4111">
@@ -45649,10 +45649,10 @@
         <v>4193</v>
       </c>
       <c r="B4111" t="n">
-        <v>2066666</v>
+        <v>2093449</v>
       </c>
       <c r="C4111" t="n">
-        <v>503553</v>
+        <v>508551</v>
       </c>
     </row>
     <row r="4112">
@@ -45660,10 +45660,10 @@
         <v>4194</v>
       </c>
       <c r="B4112" t="n">
-        <v>2092386</v>
+        <v>8060958</v>
       </c>
       <c r="C4112" t="n">
-        <v>507954</v>
+        <v>2668301</v>
       </c>
     </row>
     <row r="4113">
@@ -45671,10 +45671,10 @@
         <v>4195</v>
       </c>
       <c r="B4113" t="n">
-        <v>2070078</v>
+        <v>31770352</v>
       </c>
       <c r="C4113" t="n">
-        <v>506158</v>
+        <v>10279850</v>
       </c>
     </row>
     <row r="4114">
@@ -45682,10 +45682,10 @@
         <v>4196</v>
       </c>
       <c r="B4114" t="n">
-        <v>2109706</v>
+        <v>1047561</v>
       </c>
       <c r="C4114" t="n">
-        <v>521558</v>
+        <v>311488</v>
       </c>
     </row>
     <row r="4115">
@@ -45693,10 +45693,10 @@
         <v>4197</v>
       </c>
       <c r="B4115" t="n">
-        <v>2092515</v>
+        <v>170661</v>
       </c>
       <c r="C4115" t="n">
-        <v>507969</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="4116">
@@ -45704,10 +45704,10 @@
         <v>4198</v>
       </c>
       <c r="B4116" t="n">
-        <v>2098215</v>
+        <v>1938187</v>
       </c>
       <c r="C4116" t="n">
-        <v>512359</v>
+        <v>398847</v>
       </c>
     </row>
     <row r="4117">
@@ -45715,10 +45715,10 @@
         <v>4199</v>
       </c>
       <c r="B4117" t="n">
-        <v>2104532</v>
+        <v>53730</v>
       </c>
       <c r="C4117" t="n">
-        <v>517656</v>
+        <v>7655</v>
       </c>
     </row>
     <row r="4118">
@@ -45726,10 +45726,10 @@
         <v>4200</v>
       </c>
       <c r="B4118" t="n">
-        <v>2101151</v>
+        <v>8022317</v>
       </c>
       <c r="C4118" t="n">
-        <v>514056</v>
+        <v>2662866</v>
       </c>
     </row>
     <row r="4119">
@@ -45737,10 +45737,10 @@
         <v>4201</v>
       </c>
       <c r="B4119" t="n">
-        <v>2095575</v>
+        <v>30758623</v>
       </c>
       <c r="C4119" t="n">
-        <v>510356</v>
+        <v>10115634</v>
       </c>
     </row>
     <row r="4120">
@@ -45748,10 +45748,10 @@
         <v>4202</v>
       </c>
       <c r="B4120" t="n">
-        <v>2099506</v>
+        <v>4169655</v>
       </c>
       <c r="C4120" t="n">
-        <v>513456</v>
+        <v>2192311</v>
       </c>
     </row>
     <row r="4121">
@@ -45759,10 +45759,10 @@
         <v>4204</v>
       </c>
       <c r="B4121" t="n">
-        <v>2063744</v>
+        <v>1513462</v>
       </c>
       <c r="C4121" t="n">
-        <v>501959</v>
+        <v>334157</v>
       </c>
     </row>
     <row r="4122">
@@ -45770,10 +45770,10 @@
         <v>4205</v>
       </c>
       <c r="B4122" t="n">
-        <v>2092511</v>
+        <v>31494446</v>
       </c>
       <c r="C4122" t="n">
-        <v>507968</v>
+        <v>10233047</v>
       </c>
     </row>
     <row r="4123">
@@ -45781,10 +45781,10 @@
         <v>4206</v>
       </c>
       <c r="B4123" t="n">
-        <v>2109949</v>
+        <v>85927</v>
       </c>
       <c r="C4123" t="n">
-        <v>521851</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="4124">
@@ -45792,10 +45792,10 @@
         <v>4207</v>
       </c>
       <c r="B4124" t="n">
-        <v>2093363</v>
+        <v>3675624</v>
       </c>
       <c r="C4124" t="n">
-        <v>508460</v>
+        <v>2064287</v>
       </c>
     </row>
     <row r="4125">
@@ -45803,10 +45803,10 @@
         <v>4208</v>
       </c>
       <c r="B4125" t="n">
-        <v>2112982</v>
+        <v>31083695</v>
       </c>
       <c r="C4125" t="n">
-        <v>524357</v>
+        <v>10168308</v>
       </c>
     </row>
     <row r="4126">
@@ -45814,10 +45814,10 @@
         <v>4210</v>
       </c>
       <c r="B4126" t="n">
-        <v>2070076</v>
+        <v>30117119</v>
       </c>
       <c r="C4126" t="n">
-        <v>506158</v>
+        <v>10018412</v>
       </c>
     </row>
     <row r="4127">
@@ -45825,10 +45825,10 @@
         <v>4211</v>
       </c>
       <c r="B4127" t="n">
-        <v>2099504</v>
+        <v>2795225</v>
       </c>
       <c r="C4127" t="n">
-        <v>513456</v>
+        <v>990359</v>
       </c>
     </row>
     <row r="4128">
@@ -45836,10 +45836,10 @@
         <v>4212</v>
       </c>
       <c r="B4128" t="n">
-        <v>2108080</v>
+        <v>8115185</v>
       </c>
       <c r="C4128" t="n">
-        <v>520252</v>
+        <v>2674243</v>
       </c>
     </row>
     <row r="4129">
@@ -45847,10 +45847,10 @@
         <v>4213</v>
       </c>
       <c r="B4129" t="n">
-        <v>2094148</v>
+        <v>4285745</v>
       </c>
       <c r="C4129" t="n">
-        <v>509151</v>
+        <v>2211866</v>
       </c>
     </row>
     <row r="4130">
@@ -101621,6 +101621,28 @@
       </c>
       <c r="C9199" t="n">
         <v>11158153</v>
+      </c>
+    </row>
+    <row r="9200">
+      <c r="A9200" s="1" t="n">
+        <v>4203</v>
+      </c>
+      <c r="B9200" t="n">
+        <v>3849486</v>
+      </c>
+      <c r="C9200" t="n">
+        <v>2136746</v>
+      </c>
+    </row>
+    <row r="9201">
+      <c r="A9201" s="1" t="n">
+        <v>4209</v>
+      </c>
+      <c r="B9201" t="n">
+        <v>2650367</v>
+      </c>
+      <c r="C9201" t="n">
+        <v>862952</v>
       </c>
     </row>
   </sheetData>
